--- a/solutions/Experiment_2.xlsx
+++ b/solutions/Experiment_2.xlsx
@@ -485,31 +485,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="C2" t="n">
-        <v>44095</v>
+        <v>38376</v>
       </c>
       <c r="D2" t="n">
-        <v>44094.99999999999</v>
+        <v>38375.99999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>-61.86158827456021</v>
+        <v>-76.66007090158816</v>
       </c>
       <c r="F2" t="n">
-        <v>2.576572045373551</v>
+        <v>2.795914126924564</v>
       </c>
       <c r="G2" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>3.282707439211663e-12</v>
       </c>
       <c r="H2" t="n">
-        <v>3.637978807091713e-11</v>
+        <v>2.91038304567337e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6987897627200764</v>
+        <v>0.8254718836574723</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4883071324823808</v>
+        <v>0.681403830709019</v>
       </c>
     </row>
   </sheetData>
